--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47686C53-3C03-447B-8AC4-80B52B07D070}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0E208-6756-44E6-93BC-68240096C03D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10224" yWindow="648" windowWidth="12528" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Task 3</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t xml:space="preserve">Colour </t>
+  </si>
+  <si>
+    <t>Time quantum, T</t>
+  </si>
+  <si>
+    <t>3 ms</t>
+  </si>
+  <si>
+    <t>p2</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,8 +493,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -650,6 +665,124 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -681,7 +814,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -898,13 +1031,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -914,102 +1119,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,187 +1239,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="115">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill>
@@ -2187,15 +2218,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="114"/>
-      <tableStyleElement type="headerRow" dxfId="113"/>
-      <tableStyleElement type="totalRow" dxfId="112"/>
-      <tableStyleElement type="firstColumn" dxfId="111"/>
-      <tableStyleElement type="lastColumn" dxfId="110"/>
-      <tableStyleElement type="firstRowStripe" dxfId="109"/>
-      <tableStyleElement type="secondRowStripe" dxfId="108"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="107"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="96"/>
+      <tableStyleElement type="headerRow" dxfId="95"/>
+      <tableStyleElement type="totalRow" dxfId="94"/>
+      <tableStyleElement type="firstColumn" dxfId="93"/>
+      <tableStyleElement type="lastColumn" dxfId="92"/>
+      <tableStyleElement type="firstRowStripe" dxfId="91"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="89"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="88"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2612,9 +2643,9 @@
   </sheetPr>
   <dimension ref="A1:LG34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2626,7 +2657,7 @@
     <col min="5" max="5" width="5.21875" style="43" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="43" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="43" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="3" style="43" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="2.5546875" style="43" customWidth="1"/>
     <col min="17" max="17" width="1.6640625" style="43" bestFit="1" customWidth="1"/>
@@ -2653,71 +2684,71 @@
     </row>
     <row r="3" spans="1:319" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="69"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
     </row>
     <row r="4" spans="1:319" ht="1.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="34"/>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="83"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="83"/>
-      <c r="AM4" s="83"/>
-      <c r="AN4" s="83"/>
-      <c r="AO4" s="83"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="83"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="83"/>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
       <c r="BI4" s="70"/>
       <c r="BJ4" s="70"/>
       <c r="BK4" s="70"/>
@@ -2728,65 +2759,65 @@
     </row>
     <row r="5" spans="1:319" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80"/>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="80"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="80"/>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="80"/>
-      <c r="AU5" s="80"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="80"/>
-      <c r="AY5" s="80"/>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="80"/>
-      <c r="BD5" s="80"/>
-      <c r="BE5" s="80"/>
-      <c r="BF5" s="80"/>
-      <c r="BG5" s="80"/>
-      <c r="BH5" s="80"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="105"/>
+      <c r="AD5" s="105"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="105"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="105"/>
+      <c r="BB5" s="105"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="105"/>
     </row>
     <row r="6" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64"/>
@@ -3008,285 +3039,285 @@
       <c r="BZ6" s="3">
         <v>70</v>
       </c>
-      <c r="CA6" s="88"/>
-      <c r="CB6" s="88"/>
-      <c r="CC6" s="88"/>
-      <c r="CD6" s="88"/>
-      <c r="CE6" s="88"/>
-      <c r="CF6" s="88"/>
-      <c r="CG6" s="88"/>
-      <c r="CH6" s="88"/>
-      <c r="CI6" s="88"/>
-      <c r="CJ6" s="88"/>
-      <c r="CK6" s="88"/>
-      <c r="CL6" s="88"/>
-      <c r="CM6" s="88"/>
-      <c r="CN6" s="88"/>
-      <c r="CO6" s="88"/>
-      <c r="CP6" s="88"/>
-      <c r="CQ6" s="88"/>
-      <c r="CR6" s="88"/>
-      <c r="CS6" s="88"/>
-      <c r="CT6" s="88"/>
-      <c r="CU6" s="88"/>
-      <c r="CV6" s="88"/>
-      <c r="CW6" s="88"/>
-      <c r="CX6" s="88"/>
-      <c r="CY6" s="88"/>
-      <c r="CZ6" s="88"/>
-      <c r="DA6" s="88"/>
-      <c r="DB6" s="88"/>
-      <c r="DC6" s="88"/>
-      <c r="DD6" s="88"/>
-      <c r="DE6" s="88"/>
-      <c r="DF6" s="88"/>
-      <c r="DG6" s="88"/>
-      <c r="DH6" s="88"/>
-      <c r="DI6" s="88"/>
-      <c r="DJ6" s="88"/>
-      <c r="DK6" s="88"/>
-      <c r="DL6" s="88"/>
-      <c r="DM6" s="88"/>
-      <c r="DN6" s="88"/>
-      <c r="DO6" s="88"/>
-      <c r="DP6" s="88"/>
-      <c r="DQ6" s="88"/>
-      <c r="DR6" s="88"/>
-      <c r="DS6" s="88"/>
-      <c r="DT6" s="88"/>
-      <c r="DU6" s="88"/>
-      <c r="DV6" s="88"/>
-      <c r="DW6" s="88"/>
-      <c r="DX6" s="88"/>
-      <c r="DY6" s="88"/>
-      <c r="DZ6" s="88"/>
-      <c r="EA6" s="88"/>
-      <c r="EB6" s="88"/>
-      <c r="EC6" s="88"/>
-      <c r="ED6" s="88"/>
-      <c r="EE6" s="88"/>
-      <c r="EF6" s="88"/>
-      <c r="EG6" s="88"/>
-      <c r="EH6" s="88"/>
-      <c r="EI6" s="88"/>
-      <c r="EJ6" s="88"/>
-      <c r="EK6" s="88"/>
-      <c r="EL6" s="88"/>
-      <c r="EM6" s="88"/>
-      <c r="EN6" s="88"/>
-      <c r="EO6" s="88"/>
-      <c r="EP6" s="88"/>
-      <c r="EQ6" s="88"/>
-      <c r="ER6" s="88"/>
-      <c r="ES6" s="88"/>
-      <c r="ET6" s="88"/>
-      <c r="EU6" s="88"/>
-      <c r="EV6" s="88"/>
-      <c r="EW6" s="88"/>
-      <c r="EX6" s="88"/>
-      <c r="EY6" s="88"/>
-      <c r="EZ6" s="88"/>
-      <c r="FA6" s="88"/>
-      <c r="FB6" s="88"/>
-      <c r="FC6" s="88"/>
-      <c r="FD6" s="88"/>
-      <c r="FE6" s="88"/>
-      <c r="FF6" s="88"/>
-      <c r="FG6" s="88"/>
-      <c r="FH6" s="88"/>
-      <c r="FI6" s="88"/>
-      <c r="FJ6" s="88"/>
-      <c r="FK6" s="88"/>
-      <c r="FL6" s="88"/>
-      <c r="FM6" s="88"/>
-      <c r="FN6" s="88"/>
-      <c r="FO6" s="88"/>
-      <c r="FP6" s="88"/>
-      <c r="FQ6" s="88"/>
-      <c r="FR6" s="88"/>
-      <c r="FS6" s="88"/>
-      <c r="FT6" s="88"/>
-      <c r="FU6" s="88"/>
-      <c r="FV6" s="88"/>
-      <c r="FW6" s="88"/>
-      <c r="FX6" s="88"/>
-      <c r="FY6" s="88"/>
-      <c r="FZ6" s="88"/>
-      <c r="GA6" s="88"/>
-      <c r="GB6" s="88"/>
-      <c r="GC6" s="88"/>
-      <c r="GD6" s="88"/>
-      <c r="GE6" s="88"/>
-      <c r="GF6" s="88"/>
-      <c r="GG6" s="88"/>
-      <c r="GH6" s="88"/>
-      <c r="GI6" s="88"/>
-      <c r="GJ6" s="88"/>
-      <c r="GK6" s="88"/>
-      <c r="GL6" s="88"/>
-      <c r="GM6" s="88"/>
-      <c r="GN6" s="88"/>
-      <c r="GO6" s="88"/>
-      <c r="GP6" s="88"/>
-      <c r="GQ6" s="88"/>
-      <c r="GR6" s="88"/>
-      <c r="GS6" s="88"/>
-      <c r="GT6" s="88"/>
-      <c r="GU6" s="88"/>
-      <c r="GV6" s="88"/>
-      <c r="GW6" s="88"/>
-      <c r="GX6" s="88"/>
-      <c r="GY6" s="88"/>
-      <c r="GZ6" s="88"/>
-      <c r="HA6" s="88"/>
-      <c r="HB6" s="88"/>
-      <c r="HC6" s="88"/>
-      <c r="HD6" s="88"/>
-      <c r="HE6" s="88"/>
-      <c r="HF6" s="88"/>
-      <c r="HG6" s="88"/>
-      <c r="HH6" s="88"/>
-      <c r="HI6" s="88"/>
-      <c r="HJ6" s="88"/>
-      <c r="HK6" s="88"/>
-      <c r="HL6" s="88"/>
-      <c r="HM6" s="88"/>
-      <c r="HN6" s="88"/>
-      <c r="HO6" s="88"/>
-      <c r="HP6" s="88"/>
-      <c r="HQ6" s="88"/>
-      <c r="HR6" s="88"/>
-      <c r="HS6" s="88"/>
-      <c r="HT6" s="88"/>
-      <c r="HU6" s="88"/>
-      <c r="HV6" s="88"/>
-      <c r="HW6" s="88"/>
-      <c r="HX6" s="88"/>
-      <c r="HY6" s="88"/>
-      <c r="HZ6" s="88"/>
-      <c r="IA6" s="88"/>
-      <c r="IB6" s="88"/>
-      <c r="IC6" s="88"/>
-      <c r="ID6" s="88"/>
-      <c r="IE6" s="88"/>
-      <c r="IF6" s="88"/>
-      <c r="IG6" s="88"/>
-      <c r="IH6" s="88"/>
-      <c r="II6" s="88"/>
-      <c r="IJ6" s="88"/>
-      <c r="IK6" s="88"/>
-      <c r="IL6" s="88"/>
-      <c r="IM6" s="88"/>
-      <c r="IN6" s="88"/>
-      <c r="IO6" s="88"/>
-      <c r="IP6" s="88"/>
-      <c r="IQ6" s="88"/>
-      <c r="IR6" s="88"/>
-      <c r="IS6" s="88"/>
-      <c r="IT6" s="88"/>
-      <c r="IU6" s="88"/>
-      <c r="IV6" s="88"/>
-      <c r="IW6" s="88"/>
-      <c r="IX6" s="88"/>
-      <c r="IY6" s="88"/>
-      <c r="IZ6" s="88"/>
-      <c r="JA6" s="88"/>
-      <c r="JB6" s="88"/>
-      <c r="JC6" s="88"/>
-      <c r="JD6" s="88"/>
-      <c r="JE6" s="88"/>
-      <c r="JF6" s="88"/>
-      <c r="JG6" s="88"/>
-      <c r="JH6" s="88"/>
-      <c r="JI6" s="88"/>
-      <c r="JJ6" s="88"/>
-      <c r="JK6" s="88"/>
-      <c r="JL6" s="88"/>
-      <c r="JM6" s="88"/>
-      <c r="JN6" s="88"/>
-      <c r="JO6" s="88"/>
-      <c r="JP6" s="88"/>
-      <c r="JQ6" s="88"/>
-      <c r="JR6" s="88"/>
-      <c r="JS6" s="88"/>
-      <c r="JT6" s="88"/>
-      <c r="JU6" s="88"/>
-      <c r="JV6" s="88"/>
-      <c r="JW6" s="88"/>
-      <c r="JX6" s="88"/>
-      <c r="JY6" s="88"/>
-      <c r="JZ6" s="88"/>
-      <c r="KA6" s="88"/>
-      <c r="KB6" s="88"/>
-      <c r="KC6" s="88"/>
-      <c r="KD6" s="88"/>
-      <c r="KE6" s="88"/>
-      <c r="KF6" s="88"/>
-      <c r="KG6" s="88"/>
-      <c r="KH6" s="88"/>
-      <c r="KI6" s="88"/>
-      <c r="KJ6" s="88"/>
-      <c r="KK6" s="88"/>
-      <c r="KL6" s="88"/>
-      <c r="KM6" s="88"/>
-      <c r="KN6" s="88"/>
-      <c r="KO6" s="88"/>
-      <c r="KP6" s="88"/>
-      <c r="KQ6" s="88"/>
-      <c r="KR6" s="88"/>
-      <c r="KS6" s="88"/>
-      <c r="KT6" s="88"/>
-      <c r="KU6" s="88"/>
-      <c r="KV6" s="88"/>
-      <c r="KW6" s="88"/>
-      <c r="KX6" s="88"/>
-      <c r="KY6" s="88"/>
-      <c r="KZ6" s="88"/>
-      <c r="LA6" s="88"/>
-      <c r="LB6" s="88"/>
-      <c r="LC6" s="88"/>
-      <c r="LD6" s="88"/>
-      <c r="LE6" s="88"/>
-      <c r="LF6" s="88"/>
-      <c r="LG6" s="88"/>
+      <c r="CA6" s="78"/>
+      <c r="CB6" s="78"/>
+      <c r="CC6" s="78"/>
+      <c r="CD6" s="78"/>
+      <c r="CE6" s="78"/>
+      <c r="CF6" s="78"/>
+      <c r="CG6" s="78"/>
+      <c r="CH6" s="78"/>
+      <c r="CI6" s="78"/>
+      <c r="CJ6" s="78"/>
+      <c r="CK6" s="78"/>
+      <c r="CL6" s="78"/>
+      <c r="CM6" s="78"/>
+      <c r="CN6" s="78"/>
+      <c r="CO6" s="78"/>
+      <c r="CP6" s="78"/>
+      <c r="CQ6" s="78"/>
+      <c r="CR6" s="78"/>
+      <c r="CS6" s="78"/>
+      <c r="CT6" s="78"/>
+      <c r="CU6" s="78"/>
+      <c r="CV6" s="78"/>
+      <c r="CW6" s="78"/>
+      <c r="CX6" s="78"/>
+      <c r="CY6" s="78"/>
+      <c r="CZ6" s="78"/>
+      <c r="DA6" s="78"/>
+      <c r="DB6" s="78"/>
+      <c r="DC6" s="78"/>
+      <c r="DD6" s="78"/>
+      <c r="DE6" s="78"/>
+      <c r="DF6" s="78"/>
+      <c r="DG6" s="78"/>
+      <c r="DH6" s="78"/>
+      <c r="DI6" s="78"/>
+      <c r="DJ6" s="78"/>
+      <c r="DK6" s="78"/>
+      <c r="DL6" s="78"/>
+      <c r="DM6" s="78"/>
+      <c r="DN6" s="78"/>
+      <c r="DO6" s="78"/>
+      <c r="DP6" s="78"/>
+      <c r="DQ6" s="78"/>
+      <c r="DR6" s="78"/>
+      <c r="DS6" s="78"/>
+      <c r="DT6" s="78"/>
+      <c r="DU6" s="78"/>
+      <c r="DV6" s="78"/>
+      <c r="DW6" s="78"/>
+      <c r="DX6" s="78"/>
+      <c r="DY6" s="78"/>
+      <c r="DZ6" s="78"/>
+      <c r="EA6" s="78"/>
+      <c r="EB6" s="78"/>
+      <c r="EC6" s="78"/>
+      <c r="ED6" s="78"/>
+      <c r="EE6" s="78"/>
+      <c r="EF6" s="78"/>
+      <c r="EG6" s="78"/>
+      <c r="EH6" s="78"/>
+      <c r="EI6" s="78"/>
+      <c r="EJ6" s="78"/>
+      <c r="EK6" s="78"/>
+      <c r="EL6" s="78"/>
+      <c r="EM6" s="78"/>
+      <c r="EN6" s="78"/>
+      <c r="EO6" s="78"/>
+      <c r="EP6" s="78"/>
+      <c r="EQ6" s="78"/>
+      <c r="ER6" s="78"/>
+      <c r="ES6" s="78"/>
+      <c r="ET6" s="78"/>
+      <c r="EU6" s="78"/>
+      <c r="EV6" s="78"/>
+      <c r="EW6" s="78"/>
+      <c r="EX6" s="78"/>
+      <c r="EY6" s="78"/>
+      <c r="EZ6" s="78"/>
+      <c r="FA6" s="78"/>
+      <c r="FB6" s="78"/>
+      <c r="FC6" s="78"/>
+      <c r="FD6" s="78"/>
+      <c r="FE6" s="78"/>
+      <c r="FF6" s="78"/>
+      <c r="FG6" s="78"/>
+      <c r="FH6" s="78"/>
+      <c r="FI6" s="78"/>
+      <c r="FJ6" s="78"/>
+      <c r="FK6" s="78"/>
+      <c r="FL6" s="78"/>
+      <c r="FM6" s="78"/>
+      <c r="FN6" s="78"/>
+      <c r="FO6" s="78"/>
+      <c r="FP6" s="78"/>
+      <c r="FQ6" s="78"/>
+      <c r="FR6" s="78"/>
+      <c r="FS6" s="78"/>
+      <c r="FT6" s="78"/>
+      <c r="FU6" s="78"/>
+      <c r="FV6" s="78"/>
+      <c r="FW6" s="78"/>
+      <c r="FX6" s="78"/>
+      <c r="FY6" s="78"/>
+      <c r="FZ6" s="78"/>
+      <c r="GA6" s="78"/>
+      <c r="GB6" s="78"/>
+      <c r="GC6" s="78"/>
+      <c r="GD6" s="78"/>
+      <c r="GE6" s="78"/>
+      <c r="GF6" s="78"/>
+      <c r="GG6" s="78"/>
+      <c r="GH6" s="78"/>
+      <c r="GI6" s="78"/>
+      <c r="GJ6" s="78"/>
+      <c r="GK6" s="78"/>
+      <c r="GL6" s="78"/>
+      <c r="GM6" s="78"/>
+      <c r="GN6" s="78"/>
+      <c r="GO6" s="78"/>
+      <c r="GP6" s="78"/>
+      <c r="GQ6" s="78"/>
+      <c r="GR6" s="78"/>
+      <c r="GS6" s="78"/>
+      <c r="GT6" s="78"/>
+      <c r="GU6" s="78"/>
+      <c r="GV6" s="78"/>
+      <c r="GW6" s="78"/>
+      <c r="GX6" s="78"/>
+      <c r="GY6" s="78"/>
+      <c r="GZ6" s="78"/>
+      <c r="HA6" s="78"/>
+      <c r="HB6" s="78"/>
+      <c r="HC6" s="78"/>
+      <c r="HD6" s="78"/>
+      <c r="HE6" s="78"/>
+      <c r="HF6" s="78"/>
+      <c r="HG6" s="78"/>
+      <c r="HH6" s="78"/>
+      <c r="HI6" s="78"/>
+      <c r="HJ6" s="78"/>
+      <c r="HK6" s="78"/>
+      <c r="HL6" s="78"/>
+      <c r="HM6" s="78"/>
+      <c r="HN6" s="78"/>
+      <c r="HO6" s="78"/>
+      <c r="HP6" s="78"/>
+      <c r="HQ6" s="78"/>
+      <c r="HR6" s="78"/>
+      <c r="HS6" s="78"/>
+      <c r="HT6" s="78"/>
+      <c r="HU6" s="78"/>
+      <c r="HV6" s="78"/>
+      <c r="HW6" s="78"/>
+      <c r="HX6" s="78"/>
+      <c r="HY6" s="78"/>
+      <c r="HZ6" s="78"/>
+      <c r="IA6" s="78"/>
+      <c r="IB6" s="78"/>
+      <c r="IC6" s="78"/>
+      <c r="ID6" s="78"/>
+      <c r="IE6" s="78"/>
+      <c r="IF6" s="78"/>
+      <c r="IG6" s="78"/>
+      <c r="IH6" s="78"/>
+      <c r="II6" s="78"/>
+      <c r="IJ6" s="78"/>
+      <c r="IK6" s="78"/>
+      <c r="IL6" s="78"/>
+      <c r="IM6" s="78"/>
+      <c r="IN6" s="78"/>
+      <c r="IO6" s="78"/>
+      <c r="IP6" s="78"/>
+      <c r="IQ6" s="78"/>
+      <c r="IR6" s="78"/>
+      <c r="IS6" s="78"/>
+      <c r="IT6" s="78"/>
+      <c r="IU6" s="78"/>
+      <c r="IV6" s="78"/>
+      <c r="IW6" s="78"/>
+      <c r="IX6" s="78"/>
+      <c r="IY6" s="78"/>
+      <c r="IZ6" s="78"/>
+      <c r="JA6" s="78"/>
+      <c r="JB6" s="78"/>
+      <c r="JC6" s="78"/>
+      <c r="JD6" s="78"/>
+      <c r="JE6" s="78"/>
+      <c r="JF6" s="78"/>
+      <c r="JG6" s="78"/>
+      <c r="JH6" s="78"/>
+      <c r="JI6" s="78"/>
+      <c r="JJ6" s="78"/>
+      <c r="JK6" s="78"/>
+      <c r="JL6" s="78"/>
+      <c r="JM6" s="78"/>
+      <c r="JN6" s="78"/>
+      <c r="JO6" s="78"/>
+      <c r="JP6" s="78"/>
+      <c r="JQ6" s="78"/>
+      <c r="JR6" s="78"/>
+      <c r="JS6" s="78"/>
+      <c r="JT6" s="78"/>
+      <c r="JU6" s="78"/>
+      <c r="JV6" s="78"/>
+      <c r="JW6" s="78"/>
+      <c r="JX6" s="78"/>
+      <c r="JY6" s="78"/>
+      <c r="JZ6" s="78"/>
+      <c r="KA6" s="78"/>
+      <c r="KB6" s="78"/>
+      <c r="KC6" s="78"/>
+      <c r="KD6" s="78"/>
+      <c r="KE6" s="78"/>
+      <c r="KF6" s="78"/>
+      <c r="KG6" s="78"/>
+      <c r="KH6" s="78"/>
+      <c r="KI6" s="78"/>
+      <c r="KJ6" s="78"/>
+      <c r="KK6" s="78"/>
+      <c r="KL6" s="78"/>
+      <c r="KM6" s="78"/>
+      <c r="KN6" s="78"/>
+      <c r="KO6" s="78"/>
+      <c r="KP6" s="78"/>
+      <c r="KQ6" s="78"/>
+      <c r="KR6" s="78"/>
+      <c r="KS6" s="78"/>
+      <c r="KT6" s="78"/>
+      <c r="KU6" s="78"/>
+      <c r="KV6" s="78"/>
+      <c r="KW6" s="78"/>
+      <c r="KX6" s="78"/>
+      <c r="KY6" s="78"/>
+      <c r="KZ6" s="78"/>
+      <c r="LA6" s="78"/>
+      <c r="LB6" s="78"/>
+      <c r="LC6" s="78"/>
+      <c r="LD6" s="78"/>
+      <c r="LE6" s="78"/>
+      <c r="LF6" s="78"/>
+      <c r="LG6" s="78"/>
     </row>
     <row r="7" spans="1:319" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="67" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="47"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="75"/>
+      <c r="AB7" s="75"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
       <c r="AN7" s="40"/>
       <c r="AO7" s="40"/>
       <c r="AP7" s="40"/>
@@ -3313,65 +3344,71 @@
       <c r="A8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="33"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94" t="s">
+      <c r="I8" s="110"/>
+      <c r="J8" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="95" t="s">
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96" t="s">
+      <c r="N8" s="116"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="96"/>
-      <c r="W8" s="97" t="s">
+      <c r="Q8" s="119"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98" t="s">
+      <c r="T8" s="121"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH8" s="97" t="s">
+      <c r="W8" s="124"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="134"/>
+      <c r="AD8" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" s="97"/>
-      <c r="AJ8" s="98" t="s">
+      <c r="AE8" s="136"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="89"/>
+      <c r="AH8" s="130"/>
+      <c r="AI8" s="131"/>
+      <c r="AJ8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK8" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL8" s="130"/>
+      <c r="AM8" s="131"/>
+      <c r="AN8" s="79"/>
       <c r="AO8" s="40"/>
       <c r="AP8" s="40"/>
       <c r="AQ8" s="40"/>
@@ -3392,60 +3429,60 @@
       <c r="BF8" s="40"/>
       <c r="BG8" s="40"/>
       <c r="BH8" s="40"/>
-      <c r="BK8" s="88"/>
+      <c r="BK8" s="78"/>
     </row>
     <row r="9" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="33"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="91" t="s">
+      <c r="I9" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="91" t="s">
+      <c r="J9" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="91" t="s">
+      <c r="M9" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="N9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
       <c r="AN9" s="40"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40"/>
@@ -3469,8 +3506,8 @@
       <c r="BH9" s="40"/>
     </row>
     <row r="10" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="33"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -3544,8 +3581,8 @@
       <c r="BH10" s="40"/>
     </row>
     <row r="11" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="33"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -3614,66 +3651,70 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="85"/>
-      <c r="BC12" s="85"/>
-      <c r="BD12" s="85"/>
-      <c r="BE12" s="85"/>
-      <c r="BF12" s="85"/>
-      <c r="BG12" s="85"/>
-      <c r="BH12" s="85"/>
+      <c r="H12" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="75"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="75"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
     </row>
     <row r="13" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="81"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="9">
         <v>0.5</v>
       </c>
@@ -3686,100 +3727,100 @@
         <v>5</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="103" t="s">
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="98" t="s">
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="95" t="s">
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="92" t="s">
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="97" t="s">
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="96" t="s">
+      <c r="AH13" s="93"/>
+      <c r="AI13" s="93"/>
+      <c r="AJ13" s="93"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="98" t="s">
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="98"/>
-      <c r="BA13" s="98"/>
-      <c r="BB13" s="95" t="s">
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="95"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="95"/>
-      <c r="BF13" s="95"/>
-      <c r="BG13" s="95"/>
-      <c r="BH13" s="95"/>
-      <c r="BI13" s="95"/>
-      <c r="BJ13" s="95"/>
-      <c r="BK13" s="95"/>
-      <c r="BL13" s="101"/>
-      <c r="BM13" s="101"/>
-      <c r="BN13" s="101"/>
-      <c r="BO13" s="101"/>
-      <c r="BP13" s="95" t="s">
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91"/>
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="BQ13" s="95"/>
-      <c r="BR13" s="95"/>
-      <c r="BS13" s="95"/>
-      <c r="BT13" s="95"/>
-      <c r="BU13" s="95"/>
-      <c r="BV13" s="95" t="s">
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="91"/>
+      <c r="BU13" s="91"/>
+      <c r="BV13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="BW13" s="95"/>
+      <c r="BW13" s="91"/>
     </row>
     <row r="14" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="9">
         <v>0.5</v>
       </c>
@@ -3792,75 +3833,75 @@
         <v>8</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="104" t="s">
+      <c r="H14" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K14" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="87" t="s">
+      <c r="L14" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="100"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
-      <c r="AX14" s="86"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="86"/>
-      <c r="BD14" s="86"/>
-      <c r="BE14" s="86"/>
-      <c r="BF14" s="86"/>
-      <c r="BG14" s="86"/>
-      <c r="BH14" s="86"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="76"/>
+      <c r="BB14" s="76"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="76"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="76"/>
+      <c r="BH14" s="76"/>
     </row>
     <row r="15" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="9"/>
       <c r="E15" s="48">
         <f>F14</f>
@@ -3871,25 +3912,25 @@
         <v>11</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="105" t="s">
+      <c r="H15" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="90">
         <v>23</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="90">
         <v>19</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="90">
         <v>10</v>
       </c>
-      <c r="L15" s="111">
+      <c r="L15" s="90">
         <v>11</v>
       </c>
-      <c r="M15" s="111">
+      <c r="M15" s="90">
         <v>5</v>
       </c>
-      <c r="N15" s="89"/>
+      <c r="N15" s="79"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -3938,8 +3979,8 @@
       <c r="BH15" s="40"/>
     </row>
     <row r="16" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="9"/>
       <c r="E16" s="48">
         <f>E15</f>
@@ -3950,22 +3991,22 @@
         <v>10</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="105" t="s">
+      <c r="H16" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="90">
         <v>4</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="90">
         <v>2</v>
       </c>
-      <c r="K16" s="111">
+      <c r="K16" s="90">
         <v>1</v>
       </c>
-      <c r="L16" s="111">
+      <c r="L16" s="90">
         <v>3</v>
       </c>
-      <c r="M16" s="111">
+      <c r="M16" s="90">
         <v>5</v>
       </c>
       <c r="O16" s="40"/>
@@ -4016,8 +4057,8 @@
       <c r="BH16" s="40"/>
     </row>
     <row r="17" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="9"/>
       <c r="E17" s="48">
         <f>E16</f>
@@ -4028,15 +4069,15 @@
         <v>11</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="105" t="s">
+      <c r="H17" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -4096,12 +4137,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -5034,20 +5075,20 @@
       <c r="C34" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="BV13:BW13"/>
-    <mergeCell ref="BB13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="BP13:BU13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AU13"/>
-    <mergeCell ref="AV13:BA13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="M13:Q13"/>
+  <mergeCells count="39">
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B8:C11"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
@@ -5061,19 +5102,23 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AM8"/>
-    <mergeCell ref="B8:C11"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="BV13:BW13"/>
+    <mergeCell ref="BB13:BK13"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="BP13:BU13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AU13"/>
+    <mergeCell ref="AV13:BA13"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D31">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5086,308 +5131,373 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BH7 H8 J8 AJ8 M8 R8 W8 AB8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:BH12 H14:BH14">
-    <cfRule type="expression" dxfId="105" priority="129">
+  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8">
+    <cfRule type="expression" dxfId="87" priority="153">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BH7 H8 J8 AJ8 M8 R8 W8 AB8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:BH12 H14:BH14">
-    <cfRule type="expression" dxfId="104" priority="123">
+  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8">
+    <cfRule type="expression" dxfId="86" priority="147">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="148" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AH8 N9">
-    <cfRule type="expression" dxfId="102" priority="133">
+  <conditionalFormatting sqref="N9 AA8">
+    <cfRule type="expression" dxfId="84" priority="157">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AH8 N9">
-    <cfRule type="expression" dxfId="101" priority="137">
+  <conditionalFormatting sqref="N9 AA8">
+    <cfRule type="expression" dxfId="83" priority="161">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="162" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="99" priority="140">
+  <conditionalFormatting sqref="H9 P8 V8">
+    <cfRule type="expression" dxfId="81" priority="164">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="98" priority="143">
+  <conditionalFormatting sqref="H9 P8 V8">
+    <cfRule type="expression" dxfId="80" priority="167">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="168" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="96" priority="146">
+    <cfRule type="expression" dxfId="78" priority="170">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="95" priority="149">
+    <cfRule type="expression" dxfId="77" priority="173">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="174" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="93" priority="163">
+    <cfRule type="expression" dxfId="75" priority="187">
       <formula>AND(TODAY()&gt;=#REF!,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="92" priority="84">
+    <cfRule type="expression" dxfId="74" priority="108">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="91" priority="82">
+    <cfRule type="expression" dxfId="73" priority="106">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="71" priority="115">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="88" priority="92">
+    <cfRule type="expression" dxfId="70" priority="116">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="117" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="86" priority="94">
+    <cfRule type="expression" dxfId="68" priority="118">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="85" priority="95">
+    <cfRule type="expression" dxfId="67" priority="119">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="120" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="65" priority="109">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="64" priority="110">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="80" priority="79">
+    <cfRule type="expression" dxfId="62" priority="103">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="79" priority="80">
+    <cfRule type="expression" dxfId="61" priority="104">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="77" priority="76">
+    <cfRule type="expression" dxfId="59" priority="100">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="58" priority="101">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="102" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="56" priority="99">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="73" priority="74">
+    <cfRule type="expression" dxfId="55" priority="98">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="188" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="71" priority="72">
+    <cfRule type="expression" dxfId="53" priority="96">
       <formula>AND(TODAY()&gt;=R$5,TODAY()&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="70" priority="70">
+    <cfRule type="expression" dxfId="52" priority="94">
       <formula>AND(task_start&lt;=R$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=R$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="95" stopIfTrue="1">
       <formula>AND(task_end&gt;=R$5,task_start&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="50" priority="93">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="49" priority="91">
       <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
       <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="65" priority="66">
+    <cfRule type="expression" dxfId="47" priority="90">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="46" priority="88">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="89" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="62" priority="63">
+    <cfRule type="expression" dxfId="44" priority="87">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="43" priority="85">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="41" priority="84">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="40" priority="82">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="38" priority="78">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="37" priority="76">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="35" priority="75">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="34" priority="73">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="32" priority="69">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="31" priority="67">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="29" priority="66">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="28" priority="64">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="26" priority="60">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="25" priority="58">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BV13">
+    <cfRule type="expression" dxfId="19" priority="28">
+      <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="expression" dxfId="17" priority="21">
+      <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;T$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8">
+    <cfRule type="expression" dxfId="16" priority="19">
+      <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND(TODAY()&gt;=AE$5,TODAY()&lt;AF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>AND(task_start&lt;=AE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AE$5,task_start&lt;AF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV13">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">

--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0E208-6756-44E6-93BC-68240096C03D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7FFE0-1ECC-4488-8AC9-C0C1BB6FFEDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>Task 3</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>p2</t>
+  </si>
+  <si>
+    <t>normal round robin</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -783,6 +783,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +823,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,12 +986,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,6 +1193,9 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,6 +1227,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,7 +1266,547 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="151">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2218,15 +2785,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="96"/>
-      <tableStyleElement type="headerRow" dxfId="95"/>
-      <tableStyleElement type="totalRow" dxfId="94"/>
-      <tableStyleElement type="firstColumn" dxfId="93"/>
-      <tableStyleElement type="lastColumn" dxfId="92"/>
-      <tableStyleElement type="firstRowStripe" dxfId="91"/>
-      <tableStyleElement type="secondRowStripe" dxfId="90"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="89"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="88"/>
+      <tableStyleElement type="wholeTable" dxfId="150"/>
+      <tableStyleElement type="headerRow" dxfId="149"/>
+      <tableStyleElement type="totalRow" dxfId="148"/>
+      <tableStyleElement type="firstColumn" dxfId="147"/>
+      <tableStyleElement type="lastColumn" dxfId="146"/>
+      <tableStyleElement type="firstRowStripe" dxfId="145"/>
+      <tableStyleElement type="secondRowStripe" dxfId="144"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="143"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="142"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2643,14 +3210,14 @@
   </sheetPr>
   <dimension ref="A1:LG34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE10" sqref="AE10"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="67" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="65" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="43" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="43" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" style="43" hidden="1" customWidth="1"/>
@@ -2672,155 +3239,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:319" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:319" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:319" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
     </row>
     <row r="4" spans="1:319" ht="1.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
+      <c r="A4" s="62"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="102"/>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="102"/>
+      <c r="BG4" s="102"/>
+      <c r="BH4" s="102"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
     </row>
     <row r="5" spans="1:319" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="105"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="105"/>
-      <c r="AY5" s="105"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="105"/>
-      <c r="BB5" s="105"/>
-      <c r="BC5" s="105"/>
-      <c r="BD5" s="105"/>
-      <c r="BE5" s="105"/>
-      <c r="BF5" s="105"/>
-      <c r="BG5" s="105"/>
-      <c r="BH5" s="105"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="103"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="103"/>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="103"/>
     </row>
     <row r="6" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
+      <c r="A6" s="62"/>
       <c r="C6" s="42"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3039,285 +3606,285 @@
       <c r="BZ6" s="3">
         <v>70</v>
       </c>
-      <c r="CA6" s="78"/>
-      <c r="CB6" s="78"/>
-      <c r="CC6" s="78"/>
-      <c r="CD6" s="78"/>
-      <c r="CE6" s="78"/>
-      <c r="CF6" s="78"/>
-      <c r="CG6" s="78"/>
-      <c r="CH6" s="78"/>
-      <c r="CI6" s="78"/>
-      <c r="CJ6" s="78"/>
-      <c r="CK6" s="78"/>
-      <c r="CL6" s="78"/>
-      <c r="CM6" s="78"/>
-      <c r="CN6" s="78"/>
-      <c r="CO6" s="78"/>
-      <c r="CP6" s="78"/>
-      <c r="CQ6" s="78"/>
-      <c r="CR6" s="78"/>
-      <c r="CS6" s="78"/>
-      <c r="CT6" s="78"/>
-      <c r="CU6" s="78"/>
-      <c r="CV6" s="78"/>
-      <c r="CW6" s="78"/>
-      <c r="CX6" s="78"/>
-      <c r="CY6" s="78"/>
-      <c r="CZ6" s="78"/>
-      <c r="DA6" s="78"/>
-      <c r="DB6" s="78"/>
-      <c r="DC6" s="78"/>
-      <c r="DD6" s="78"/>
-      <c r="DE6" s="78"/>
-      <c r="DF6" s="78"/>
-      <c r="DG6" s="78"/>
-      <c r="DH6" s="78"/>
-      <c r="DI6" s="78"/>
-      <c r="DJ6" s="78"/>
-      <c r="DK6" s="78"/>
-      <c r="DL6" s="78"/>
-      <c r="DM6" s="78"/>
-      <c r="DN6" s="78"/>
-      <c r="DO6" s="78"/>
-      <c r="DP6" s="78"/>
-      <c r="DQ6" s="78"/>
-      <c r="DR6" s="78"/>
-      <c r="DS6" s="78"/>
-      <c r="DT6" s="78"/>
-      <c r="DU6" s="78"/>
-      <c r="DV6" s="78"/>
-      <c r="DW6" s="78"/>
-      <c r="DX6" s="78"/>
-      <c r="DY6" s="78"/>
-      <c r="DZ6" s="78"/>
-      <c r="EA6" s="78"/>
-      <c r="EB6" s="78"/>
-      <c r="EC6" s="78"/>
-      <c r="ED6" s="78"/>
-      <c r="EE6" s="78"/>
-      <c r="EF6" s="78"/>
-      <c r="EG6" s="78"/>
-      <c r="EH6" s="78"/>
-      <c r="EI6" s="78"/>
-      <c r="EJ6" s="78"/>
-      <c r="EK6" s="78"/>
-      <c r="EL6" s="78"/>
-      <c r="EM6" s="78"/>
-      <c r="EN6" s="78"/>
-      <c r="EO6" s="78"/>
-      <c r="EP6" s="78"/>
-      <c r="EQ6" s="78"/>
-      <c r="ER6" s="78"/>
-      <c r="ES6" s="78"/>
-      <c r="ET6" s="78"/>
-      <c r="EU6" s="78"/>
-      <c r="EV6" s="78"/>
-      <c r="EW6" s="78"/>
-      <c r="EX6" s="78"/>
-      <c r="EY6" s="78"/>
-      <c r="EZ6" s="78"/>
-      <c r="FA6" s="78"/>
-      <c r="FB6" s="78"/>
-      <c r="FC6" s="78"/>
-      <c r="FD6" s="78"/>
-      <c r="FE6" s="78"/>
-      <c r="FF6" s="78"/>
-      <c r="FG6" s="78"/>
-      <c r="FH6" s="78"/>
-      <c r="FI6" s="78"/>
-      <c r="FJ6" s="78"/>
-      <c r="FK6" s="78"/>
-      <c r="FL6" s="78"/>
-      <c r="FM6" s="78"/>
-      <c r="FN6" s="78"/>
-      <c r="FO6" s="78"/>
-      <c r="FP6" s="78"/>
-      <c r="FQ6" s="78"/>
-      <c r="FR6" s="78"/>
-      <c r="FS6" s="78"/>
-      <c r="FT6" s="78"/>
-      <c r="FU6" s="78"/>
-      <c r="FV6" s="78"/>
-      <c r="FW6" s="78"/>
-      <c r="FX6" s="78"/>
-      <c r="FY6" s="78"/>
-      <c r="FZ6" s="78"/>
-      <c r="GA6" s="78"/>
-      <c r="GB6" s="78"/>
-      <c r="GC6" s="78"/>
-      <c r="GD6" s="78"/>
-      <c r="GE6" s="78"/>
-      <c r="GF6" s="78"/>
-      <c r="GG6" s="78"/>
-      <c r="GH6" s="78"/>
-      <c r="GI6" s="78"/>
-      <c r="GJ6" s="78"/>
-      <c r="GK6" s="78"/>
-      <c r="GL6" s="78"/>
-      <c r="GM6" s="78"/>
-      <c r="GN6" s="78"/>
-      <c r="GO6" s="78"/>
-      <c r="GP6" s="78"/>
-      <c r="GQ6" s="78"/>
-      <c r="GR6" s="78"/>
-      <c r="GS6" s="78"/>
-      <c r="GT6" s="78"/>
-      <c r="GU6" s="78"/>
-      <c r="GV6" s="78"/>
-      <c r="GW6" s="78"/>
-      <c r="GX6" s="78"/>
-      <c r="GY6" s="78"/>
-      <c r="GZ6" s="78"/>
-      <c r="HA6" s="78"/>
-      <c r="HB6" s="78"/>
-      <c r="HC6" s="78"/>
-      <c r="HD6" s="78"/>
-      <c r="HE6" s="78"/>
-      <c r="HF6" s="78"/>
-      <c r="HG6" s="78"/>
-      <c r="HH6" s="78"/>
-      <c r="HI6" s="78"/>
-      <c r="HJ6" s="78"/>
-      <c r="HK6" s="78"/>
-      <c r="HL6" s="78"/>
-      <c r="HM6" s="78"/>
-      <c r="HN6" s="78"/>
-      <c r="HO6" s="78"/>
-      <c r="HP6" s="78"/>
-      <c r="HQ6" s="78"/>
-      <c r="HR6" s="78"/>
-      <c r="HS6" s="78"/>
-      <c r="HT6" s="78"/>
-      <c r="HU6" s="78"/>
-      <c r="HV6" s="78"/>
-      <c r="HW6" s="78"/>
-      <c r="HX6" s="78"/>
-      <c r="HY6" s="78"/>
-      <c r="HZ6" s="78"/>
-      <c r="IA6" s="78"/>
-      <c r="IB6" s="78"/>
-      <c r="IC6" s="78"/>
-      <c r="ID6" s="78"/>
-      <c r="IE6" s="78"/>
-      <c r="IF6" s="78"/>
-      <c r="IG6" s="78"/>
-      <c r="IH6" s="78"/>
-      <c r="II6" s="78"/>
-      <c r="IJ6" s="78"/>
-      <c r="IK6" s="78"/>
-      <c r="IL6" s="78"/>
-      <c r="IM6" s="78"/>
-      <c r="IN6" s="78"/>
-      <c r="IO6" s="78"/>
-      <c r="IP6" s="78"/>
-      <c r="IQ6" s="78"/>
-      <c r="IR6" s="78"/>
-      <c r="IS6" s="78"/>
-      <c r="IT6" s="78"/>
-      <c r="IU6" s="78"/>
-      <c r="IV6" s="78"/>
-      <c r="IW6" s="78"/>
-      <c r="IX6" s="78"/>
-      <c r="IY6" s="78"/>
-      <c r="IZ6" s="78"/>
-      <c r="JA6" s="78"/>
-      <c r="JB6" s="78"/>
-      <c r="JC6" s="78"/>
-      <c r="JD6" s="78"/>
-      <c r="JE6" s="78"/>
-      <c r="JF6" s="78"/>
-      <c r="JG6" s="78"/>
-      <c r="JH6" s="78"/>
-      <c r="JI6" s="78"/>
-      <c r="JJ6" s="78"/>
-      <c r="JK6" s="78"/>
-      <c r="JL6" s="78"/>
-      <c r="JM6" s="78"/>
-      <c r="JN6" s="78"/>
-      <c r="JO6" s="78"/>
-      <c r="JP6" s="78"/>
-      <c r="JQ6" s="78"/>
-      <c r="JR6" s="78"/>
-      <c r="JS6" s="78"/>
-      <c r="JT6" s="78"/>
-      <c r="JU6" s="78"/>
-      <c r="JV6" s="78"/>
-      <c r="JW6" s="78"/>
-      <c r="JX6" s="78"/>
-      <c r="JY6" s="78"/>
-      <c r="JZ6" s="78"/>
-      <c r="KA6" s="78"/>
-      <c r="KB6" s="78"/>
-      <c r="KC6" s="78"/>
-      <c r="KD6" s="78"/>
-      <c r="KE6" s="78"/>
-      <c r="KF6" s="78"/>
-      <c r="KG6" s="78"/>
-      <c r="KH6" s="78"/>
-      <c r="KI6" s="78"/>
-      <c r="KJ6" s="78"/>
-      <c r="KK6" s="78"/>
-      <c r="KL6" s="78"/>
-      <c r="KM6" s="78"/>
-      <c r="KN6" s="78"/>
-      <c r="KO6" s="78"/>
-      <c r="KP6" s="78"/>
-      <c r="KQ6" s="78"/>
-      <c r="KR6" s="78"/>
-      <c r="KS6" s="78"/>
-      <c r="KT6" s="78"/>
-      <c r="KU6" s="78"/>
-      <c r="KV6" s="78"/>
-      <c r="KW6" s="78"/>
-      <c r="KX6" s="78"/>
-      <c r="KY6" s="78"/>
-      <c r="KZ6" s="78"/>
-      <c r="LA6" s="78"/>
-      <c r="LB6" s="78"/>
-      <c r="LC6" s="78"/>
-      <c r="LD6" s="78"/>
-      <c r="LE6" s="78"/>
-      <c r="LF6" s="78"/>
-      <c r="LG6" s="78"/>
+      <c r="CA6" s="76"/>
+      <c r="CB6" s="76"/>
+      <c r="CC6" s="76"/>
+      <c r="CD6" s="76"/>
+      <c r="CE6" s="76"/>
+      <c r="CF6" s="76"/>
+      <c r="CG6" s="76"/>
+      <c r="CH6" s="76"/>
+      <c r="CI6" s="76"/>
+      <c r="CJ6" s="76"/>
+      <c r="CK6" s="76"/>
+      <c r="CL6" s="76"/>
+      <c r="CM6" s="76"/>
+      <c r="CN6" s="76"/>
+      <c r="CO6" s="76"/>
+      <c r="CP6" s="76"/>
+      <c r="CQ6" s="76"/>
+      <c r="CR6" s="76"/>
+      <c r="CS6" s="76"/>
+      <c r="CT6" s="76"/>
+      <c r="CU6" s="76"/>
+      <c r="CV6" s="76"/>
+      <c r="CW6" s="76"/>
+      <c r="CX6" s="76"/>
+      <c r="CY6" s="76"/>
+      <c r="CZ6" s="76"/>
+      <c r="DA6" s="76"/>
+      <c r="DB6" s="76"/>
+      <c r="DC6" s="76"/>
+      <c r="DD6" s="76"/>
+      <c r="DE6" s="76"/>
+      <c r="DF6" s="76"/>
+      <c r="DG6" s="76"/>
+      <c r="DH6" s="76"/>
+      <c r="DI6" s="76"/>
+      <c r="DJ6" s="76"/>
+      <c r="DK6" s="76"/>
+      <c r="DL6" s="76"/>
+      <c r="DM6" s="76"/>
+      <c r="DN6" s="76"/>
+      <c r="DO6" s="76"/>
+      <c r="DP6" s="76"/>
+      <c r="DQ6" s="76"/>
+      <c r="DR6" s="76"/>
+      <c r="DS6" s="76"/>
+      <c r="DT6" s="76"/>
+      <c r="DU6" s="76"/>
+      <c r="DV6" s="76"/>
+      <c r="DW6" s="76"/>
+      <c r="DX6" s="76"/>
+      <c r="DY6" s="76"/>
+      <c r="DZ6" s="76"/>
+      <c r="EA6" s="76"/>
+      <c r="EB6" s="76"/>
+      <c r="EC6" s="76"/>
+      <c r="ED6" s="76"/>
+      <c r="EE6" s="76"/>
+      <c r="EF6" s="76"/>
+      <c r="EG6" s="76"/>
+      <c r="EH6" s="76"/>
+      <c r="EI6" s="76"/>
+      <c r="EJ6" s="76"/>
+      <c r="EK6" s="76"/>
+      <c r="EL6" s="76"/>
+      <c r="EM6" s="76"/>
+      <c r="EN6" s="76"/>
+      <c r="EO6" s="76"/>
+      <c r="EP6" s="76"/>
+      <c r="EQ6" s="76"/>
+      <c r="ER6" s="76"/>
+      <c r="ES6" s="76"/>
+      <c r="ET6" s="76"/>
+      <c r="EU6" s="76"/>
+      <c r="EV6" s="76"/>
+      <c r="EW6" s="76"/>
+      <c r="EX6" s="76"/>
+      <c r="EY6" s="76"/>
+      <c r="EZ6" s="76"/>
+      <c r="FA6" s="76"/>
+      <c r="FB6" s="76"/>
+      <c r="FC6" s="76"/>
+      <c r="FD6" s="76"/>
+      <c r="FE6" s="76"/>
+      <c r="FF6" s="76"/>
+      <c r="FG6" s="76"/>
+      <c r="FH6" s="76"/>
+      <c r="FI6" s="76"/>
+      <c r="FJ6" s="76"/>
+      <c r="FK6" s="76"/>
+      <c r="FL6" s="76"/>
+      <c r="FM6" s="76"/>
+      <c r="FN6" s="76"/>
+      <c r="FO6" s="76"/>
+      <c r="FP6" s="76"/>
+      <c r="FQ6" s="76"/>
+      <c r="FR6" s="76"/>
+      <c r="FS6" s="76"/>
+      <c r="FT6" s="76"/>
+      <c r="FU6" s="76"/>
+      <c r="FV6" s="76"/>
+      <c r="FW6" s="76"/>
+      <c r="FX6" s="76"/>
+      <c r="FY6" s="76"/>
+      <c r="FZ6" s="76"/>
+      <c r="GA6" s="76"/>
+      <c r="GB6" s="76"/>
+      <c r="GC6" s="76"/>
+      <c r="GD6" s="76"/>
+      <c r="GE6" s="76"/>
+      <c r="GF6" s="76"/>
+      <c r="GG6" s="76"/>
+      <c r="GH6" s="76"/>
+      <c r="GI6" s="76"/>
+      <c r="GJ6" s="76"/>
+      <c r="GK6" s="76"/>
+      <c r="GL6" s="76"/>
+      <c r="GM6" s="76"/>
+      <c r="GN6" s="76"/>
+      <c r="GO6" s="76"/>
+      <c r="GP6" s="76"/>
+      <c r="GQ6" s="76"/>
+      <c r="GR6" s="76"/>
+      <c r="GS6" s="76"/>
+      <c r="GT6" s="76"/>
+      <c r="GU6" s="76"/>
+      <c r="GV6" s="76"/>
+      <c r="GW6" s="76"/>
+      <c r="GX6" s="76"/>
+      <c r="GY6" s="76"/>
+      <c r="GZ6" s="76"/>
+      <c r="HA6" s="76"/>
+      <c r="HB6" s="76"/>
+      <c r="HC6" s="76"/>
+      <c r="HD6" s="76"/>
+      <c r="HE6" s="76"/>
+      <c r="HF6" s="76"/>
+      <c r="HG6" s="76"/>
+      <c r="HH6" s="76"/>
+      <c r="HI6" s="76"/>
+      <c r="HJ6" s="76"/>
+      <c r="HK6" s="76"/>
+      <c r="HL6" s="76"/>
+      <c r="HM6" s="76"/>
+      <c r="HN6" s="76"/>
+      <c r="HO6" s="76"/>
+      <c r="HP6" s="76"/>
+      <c r="HQ6" s="76"/>
+      <c r="HR6" s="76"/>
+      <c r="HS6" s="76"/>
+      <c r="HT6" s="76"/>
+      <c r="HU6" s="76"/>
+      <c r="HV6" s="76"/>
+      <c r="HW6" s="76"/>
+      <c r="HX6" s="76"/>
+      <c r="HY6" s="76"/>
+      <c r="HZ6" s="76"/>
+      <c r="IA6" s="76"/>
+      <c r="IB6" s="76"/>
+      <c r="IC6" s="76"/>
+      <c r="ID6" s="76"/>
+      <c r="IE6" s="76"/>
+      <c r="IF6" s="76"/>
+      <c r="IG6" s="76"/>
+      <c r="IH6" s="76"/>
+      <c r="II6" s="76"/>
+      <c r="IJ6" s="76"/>
+      <c r="IK6" s="76"/>
+      <c r="IL6" s="76"/>
+      <c r="IM6" s="76"/>
+      <c r="IN6" s="76"/>
+      <c r="IO6" s="76"/>
+      <c r="IP6" s="76"/>
+      <c r="IQ6" s="76"/>
+      <c r="IR6" s="76"/>
+      <c r="IS6" s="76"/>
+      <c r="IT6" s="76"/>
+      <c r="IU6" s="76"/>
+      <c r="IV6" s="76"/>
+      <c r="IW6" s="76"/>
+      <c r="IX6" s="76"/>
+      <c r="IY6" s="76"/>
+      <c r="IZ6" s="76"/>
+      <c r="JA6" s="76"/>
+      <c r="JB6" s="76"/>
+      <c r="JC6" s="76"/>
+      <c r="JD6" s="76"/>
+      <c r="JE6" s="76"/>
+      <c r="JF6" s="76"/>
+      <c r="JG6" s="76"/>
+      <c r="JH6" s="76"/>
+      <c r="JI6" s="76"/>
+      <c r="JJ6" s="76"/>
+      <c r="JK6" s="76"/>
+      <c r="JL6" s="76"/>
+      <c r="JM6" s="76"/>
+      <c r="JN6" s="76"/>
+      <c r="JO6" s="76"/>
+      <c r="JP6" s="76"/>
+      <c r="JQ6" s="76"/>
+      <c r="JR6" s="76"/>
+      <c r="JS6" s="76"/>
+      <c r="JT6" s="76"/>
+      <c r="JU6" s="76"/>
+      <c r="JV6" s="76"/>
+      <c r="JW6" s="76"/>
+      <c r="JX6" s="76"/>
+      <c r="JY6" s="76"/>
+      <c r="JZ6" s="76"/>
+      <c r="KA6" s="76"/>
+      <c r="KB6" s="76"/>
+      <c r="KC6" s="76"/>
+      <c r="KD6" s="76"/>
+      <c r="KE6" s="76"/>
+      <c r="KF6" s="76"/>
+      <c r="KG6" s="76"/>
+      <c r="KH6" s="76"/>
+      <c r="KI6" s="76"/>
+      <c r="KJ6" s="76"/>
+      <c r="KK6" s="76"/>
+      <c r="KL6" s="76"/>
+      <c r="KM6" s="76"/>
+      <c r="KN6" s="76"/>
+      <c r="KO6" s="76"/>
+      <c r="KP6" s="76"/>
+      <c r="KQ6" s="76"/>
+      <c r="KR6" s="76"/>
+      <c r="KS6" s="76"/>
+      <c r="KT6" s="76"/>
+      <c r="KU6" s="76"/>
+      <c r="KV6" s="76"/>
+      <c r="KW6" s="76"/>
+      <c r="KX6" s="76"/>
+      <c r="KY6" s="76"/>
+      <c r="KZ6" s="76"/>
+      <c r="LA6" s="76"/>
+      <c r="LB6" s="76"/>
+      <c r="LC6" s="76"/>
+      <c r="LD6" s="76"/>
+      <c r="LE6" s="76"/>
+      <c r="LF6" s="76"/>
+      <c r="LG6" s="76"/>
     </row>
     <row r="7" spans="1:319" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="67" t="s">
-        <v>27</v>
+      <c r="A7" s="65" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="47"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="75"/>
-      <c r="AB7" s="75"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
       <c r="AN7" s="40"/>
       <c r="AO7" s="40"/>
       <c r="AP7" s="40"/>
@@ -3341,74 +3908,74 @@
       <c r="BH7" s="40"/>
     </row>
     <row r="8" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="107"/>
+      <c r="A8" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="105"/>
       <c r="D8" s="33"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="108"/>
+      <c r="J8" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="109" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="115" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="114"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118" t="s">
+      <c r="Q8" s="117"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="120"/>
-      <c r="S8" s="122" t="s">
+      <c r="T8" s="119"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="121"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="124"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB8" s="133"/>
-      <c r="AC8" s="134"/>
-      <c r="AD8" s="135" t="s">
+      <c r="W8" s="122"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8" s="135"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH8" s="130"/>
-      <c r="AI8" s="131"/>
+      <c r="AH8" s="129"/>
+      <c r="AI8" s="130"/>
       <c r="AJ8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK8" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="AK8" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL8" s="130"/>
-      <c r="AM8" s="131"/>
-      <c r="AN8" s="79"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="130"/>
+      <c r="AN8" s="77"/>
       <c r="AO8" s="40"/>
       <c r="AP8" s="40"/>
       <c r="AQ8" s="40"/>
@@ -3429,60 +3996,60 @@
       <c r="BF8" s="40"/>
       <c r="BG8" s="40"/>
       <c r="BH8" s="40"/>
-      <c r="BK8" s="78"/>
+      <c r="BK8" s="76"/>
     </row>
     <row r="9" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="33"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="J9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="K9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="L9" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="81" t="s">
+      <c r="M9" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="81" t="s">
+      <c r="N9" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
       <c r="AN9" s="40"/>
       <c r="AO9" s="40"/>
       <c r="AP9" s="40"/>
@@ -3506,14 +4073,14 @@
       <c r="BH9" s="40"/>
     </row>
     <row r="10" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="33"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
       <c r="G10" s="5"/>
       <c r="H10" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="46">
         <v>5</v>
@@ -3581,14 +4148,14 @@
       <c r="BH10" s="40"/>
     </row>
     <row r="11" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="33"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="5"/>
       <c r="H11" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="41"/>
       <c r="J11" s="35"/>
@@ -3644,77 +4211,77 @@
       <c r="BH11" s="40"/>
     </row>
     <row r="12" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
-        <v>29</v>
+      <c r="A12" s="62" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="75"/>
-      <c r="AU12" s="75"/>
-      <c r="AV12" s="75"/>
-      <c r="AW12" s="75"/>
-      <c r="AX12" s="75"/>
-      <c r="AY12" s="75"/>
-      <c r="AZ12" s="75"/>
-      <c r="BA12" s="75"/>
-      <c r="BB12" s="75"/>
-      <c r="BC12" s="75"/>
-      <c r="BD12" s="75"/>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="75"/>
-      <c r="BG12" s="75"/>
-      <c r="BH12" s="75"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="73"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
     </row>
     <row r="13" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
-      <c r="B13" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="98"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="96"/>
       <c r="D13" s="9">
         <v>0.5</v>
       </c>
@@ -3727,100 +4294,100 @@
         <v>5</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="100" t="s">
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="91" t="s">
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="X13" s="91"/>
-      <c r="Y13" s="91"/>
-      <c r="Z13" s="91"/>
-      <c r="AA13" s="91"/>
-      <c r="AB13" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="93" t="s">
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="94"/>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="94"/>
-      <c r="AQ13" s="94"/>
-      <c r="AR13" s="94"/>
-      <c r="AS13" s="94"/>
-      <c r="AT13" s="94"/>
-      <c r="AU13" s="94"/>
-      <c r="AV13" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC13" s="91"/>
-      <c r="BD13" s="91"/>
-      <c r="BE13" s="91"/>
-      <c r="BF13" s="91"/>
-      <c r="BG13" s="91"/>
-      <c r="BH13" s="91"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="91"/>
-      <c r="BK13" s="91"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
-      <c r="BN13" s="92"/>
-      <c r="BO13" s="92"/>
-      <c r="BP13" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="91"/>
-      <c r="BS13" s="91"/>
-      <c r="BT13" s="91"/>
-      <c r="BU13" s="91"/>
-      <c r="BV13" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="BW13" s="91"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="89"/>
+      <c r="BF13" s="89"/>
+      <c r="BG13" s="89"/>
+      <c r="BH13" s="89"/>
+      <c r="BI13" s="89"/>
+      <c r="BJ13" s="89"/>
+      <c r="BK13" s="89"/>
+      <c r="BL13" s="90"/>
+      <c r="BM13" s="90"/>
+      <c r="BN13" s="90"/>
+      <c r="BO13" s="90"/>
+      <c r="BP13" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="BQ13" s="89"/>
+      <c r="BR13" s="89"/>
+      <c r="BS13" s="89"/>
+      <c r="BT13" s="89"/>
+      <c r="BU13" s="89"/>
+      <c r="BV13" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW13" s="89"/>
     </row>
     <row r="14" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="9">
         <v>0.5</v>
       </c>
@@ -3833,75 +4400,75 @@
         <v>8</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="77" t="s">
+      <c r="J14" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="77" t="s">
+      <c r="K14" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="L14" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="M14" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="82"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
     </row>
     <row r="15" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="9"/>
       <c r="E15" s="48">
         <f>F14</f>
@@ -3912,25 +4479,25 @@
         <v>11</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="90">
+      <c r="H15" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="88">
         <v>23</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="88">
         <v>19</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="88">
         <v>10</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="88">
         <v>11</v>
       </c>
-      <c r="M15" s="90">
+      <c r="M15" s="88">
         <v>5</v>
       </c>
-      <c r="N15" s="79"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
@@ -3979,8 +4546,8 @@
       <c r="BH15" s="40"/>
     </row>
     <row r="16" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="9"/>
       <c r="E16" s="48">
         <f>E15</f>
@@ -3991,22 +4558,22 @@
         <v>10</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="90">
+      <c r="H16" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="88">
         <v>4</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="88">
         <v>2</v>
       </c>
-      <c r="K16" s="90">
+      <c r="K16" s="88">
         <v>1</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="88">
         <v>3</v>
       </c>
-      <c r="M16" s="90">
+      <c r="M16" s="88">
         <v>5</v>
       </c>
       <c r="O16" s="40"/>
@@ -4057,8 +4624,8 @@
       <c r="BH16" s="40"/>
     </row>
     <row r="17" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="9"/>
       <c r="E17" s="48">
         <f>E16</f>
@@ -4069,15 +4636,15 @@
         <v>11</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="74"/>
+      <c r="H17" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -4126,8 +4693,8 @@
       <c r="BH17" s="40"/>
     </row>
     <row r="18" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="67" t="s">
-        <v>24</v>
+      <c r="A18" s="65" t="s">
+        <v>23</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>7</v>
@@ -4137,12 +4704,12 @@
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -4537,12 +5104,10 @@
       <c r="BH23" s="40"/>
     </row>
     <row r="24" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="54"/>
       <c r="C24" s="55"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
@@ -4603,50 +5168,50 @@
       <c r="BH24" s="40"/>
     </row>
     <row r="25" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="57"/>
+      <c r="B25" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="137"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>23</v>
+      <c r="E25" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="122"/>
+      <c r="AH25" s="122"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="122"/>
+      <c r="AL25" s="122"/>
+      <c r="AM25" s="143"/>
       <c r="AN25" s="40"/>
       <c r="AO25" s="40"/>
       <c r="AP25" s="40"/>
@@ -4670,25 +5235,37 @@
       <c r="BH25" s="40"/>
     </row>
     <row r="26" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="57"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>23</v>
+      <c r="E26" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
+      <c r="H26" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="79" t="s">
+        <v>35</v>
+      </c>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
       <c r="Q26" s="40"/>
@@ -4737,25 +5314,37 @@
       <c r="BH26" s="40"/>
     </row>
     <row r="27" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="57"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>23</v>
+      <c r="E27" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
+      <c r="H27" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="46">
+        <v>5</v>
+      </c>
+      <c r="J27" s="46">
+        <v>6</v>
+      </c>
+      <c r="K27" s="46">
+        <v>7</v>
+      </c>
+      <c r="L27" s="46">
+        <v>9</v>
+      </c>
+      <c r="M27" s="46">
+        <v>2</v>
+      </c>
+      <c r="N27" s="46">
+        <v>3</v>
+      </c>
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
       <c r="Q27" s="40"/>
@@ -4804,25 +5393,25 @@
       <c r="BH27" s="40"/>
     </row>
     <row r="28" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="57"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>23</v>
+      <c r="E28" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
+      <c r="H28" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
       <c r="Q28" s="40"/>
@@ -4871,25 +5460,27 @@
       <c r="BH28" s="40"/>
     </row>
     <row r="29" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="57"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>23</v>
+      <c r="E29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>22</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
+      <c r="H29" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
@@ -4938,14 +5529,14 @@
       <c r="BH29" s="40"/>
     </row>
     <row r="30" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
+      <c r="A30" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="5"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
@@ -5002,80 +5593,93 @@
       <c r="BH30" s="40"/>
     </row>
     <row r="31" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="64" t="s">
-        <v>25</v>
+      <c r="A31" s="62" t="s">
+        <v>24</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="62"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="20"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="63"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="63"/>
-      <c r="AK31" s="63"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="63"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="63"/>
-      <c r="AV31" s="63"/>
-      <c r="AW31" s="63"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="63"/>
-      <c r="BC31" s="63"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="61"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="61"/>
+      <c r="AG31" s="61"/>
+      <c r="AH31" s="61"/>
+      <c r="AI31" s="61"/>
+      <c r="AJ31" s="61"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="61"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
+      <c r="AO31" s="61"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
+      <c r="AS31" s="61"/>
+      <c r="AT31" s="61"/>
+      <c r="AU31" s="61"/>
+      <c r="AV31" s="61"/>
+      <c r="AW31" s="61"/>
+      <c r="AX31" s="61"/>
+      <c r="AY31" s="61"/>
+      <c r="AZ31" s="61"/>
+      <c r="BA31" s="61"/>
+      <c r="BB31" s="61"/>
+      <c r="BC31" s="61"/>
+      <c r="BD31" s="61"/>
+      <c r="BE31" s="61"/>
+      <c r="BF31" s="61"/>
+      <c r="BG31" s="61"/>
+      <c r="BH31" s="61"/>
     </row>
     <row r="33" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="71"/>
-      <c r="F33" s="72"/>
+      <c r="C33" s="69"/>
+      <c r="F33" s="70"/>
     </row>
     <row r="34" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="73"/>
+      <c r="C34" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="52">
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AC25"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:R8"/>
@@ -5118,7 +5722,7 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D31">
-    <cfRule type="dataBar" priority="134">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5131,372 +5735,593 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8">
-    <cfRule type="expression" dxfId="87" priority="153">
+  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH24 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8 H30:BH31 O26:BH29 AN25:BH25">
+    <cfRule type="expression" dxfId="141" priority="207">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH31 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8">
-    <cfRule type="expression" dxfId="86" priority="147">
+  <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH24 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8 H30:BH31 O26:BH29 AN25:BH25">
+    <cfRule type="expression" dxfId="140" priority="201">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="202" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 AA8">
-    <cfRule type="expression" dxfId="84" priority="157">
+    <cfRule type="expression" dxfId="138" priority="211">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 AA8">
-    <cfRule type="expression" dxfId="83" priority="161">
+    <cfRule type="expression" dxfId="137" priority="215">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="216" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 P8 V8">
-    <cfRule type="expression" dxfId="81" priority="164">
+    <cfRule type="expression" dxfId="135" priority="218">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 P8 V8">
-    <cfRule type="expression" dxfId="80" priority="167">
+    <cfRule type="expression" dxfId="134" priority="221">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="222" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="78" priority="170">
+    <cfRule type="expression" dxfId="132" priority="224">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="77" priority="173">
+    <cfRule type="expression" dxfId="131" priority="227">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="228" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="75" priority="187">
+    <cfRule type="expression" dxfId="129" priority="241">
       <formula>AND(TODAY()&gt;=#REF!,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="74" priority="108">
+    <cfRule type="expression" dxfId="128" priority="162">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="73" priority="106">
+    <cfRule type="expression" dxfId="127" priority="160">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="161" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="71" priority="115">
+    <cfRule type="expression" dxfId="125" priority="169">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="70" priority="116">
+    <cfRule type="expression" dxfId="124" priority="170">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="171" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="68" priority="118">
+    <cfRule type="expression" dxfId="122" priority="172">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="67" priority="119">
+    <cfRule type="expression" dxfId="121" priority="173">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="174" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="65" priority="109">
+    <cfRule type="expression" dxfId="119" priority="163">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="64" priority="110">
+    <cfRule type="expression" dxfId="118" priority="164">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="165" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="62" priority="103">
+    <cfRule type="expression" dxfId="116" priority="157">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="61" priority="104">
+    <cfRule type="expression" dxfId="115" priority="158">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="59" priority="100">
+    <cfRule type="expression" dxfId="113" priority="154">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="58" priority="101">
+    <cfRule type="expression" dxfId="112" priority="155">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="56" priority="99">
+    <cfRule type="expression" dxfId="110" priority="153">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="55" priority="98">
+    <cfRule type="expression" dxfId="109" priority="152">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="242" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="53" priority="96">
+    <cfRule type="expression" dxfId="107" priority="150">
       <formula>AND(TODAY()&gt;=R$5,TODAY()&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="52" priority="94">
+    <cfRule type="expression" dxfId="106" priority="148">
       <formula>AND(task_start&lt;=R$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=R$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="149" stopIfTrue="1">
       <formula>AND(task_end&gt;=R$5,task_start&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="50" priority="93">
+    <cfRule type="expression" dxfId="104" priority="147">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="49" priority="91">
+    <cfRule type="expression" dxfId="103" priority="145">
       <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="47" priority="90">
+    <cfRule type="expression" dxfId="101" priority="144">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="46" priority="88">
+    <cfRule type="expression" dxfId="100" priority="142">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="44" priority="87">
+    <cfRule type="expression" dxfId="98" priority="141">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="43" priority="85">
+    <cfRule type="expression" dxfId="97" priority="139">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="140" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="41" priority="84">
+    <cfRule type="expression" dxfId="95" priority="138">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="40" priority="82">
+    <cfRule type="expression" dxfId="94" priority="136">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="137" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="38" priority="78">
+    <cfRule type="expression" dxfId="92" priority="132">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="37" priority="76">
+    <cfRule type="expression" dxfId="91" priority="130">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="35" priority="75">
+    <cfRule type="expression" dxfId="89" priority="129">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="34" priority="73">
+    <cfRule type="expression" dxfId="88" priority="127">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="32" priority="69">
+    <cfRule type="expression" dxfId="86" priority="123">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="31" priority="67">
+    <cfRule type="expression" dxfId="85" priority="121">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="122" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="29" priority="66">
+    <cfRule type="expression" dxfId="83" priority="120">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="28" priority="64">
+    <cfRule type="expression" dxfId="82" priority="118">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="119" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="26" priority="60">
+    <cfRule type="expression" dxfId="80" priority="114">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="25" priority="58">
+    <cfRule type="expression" dxfId="79" priority="112">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="113" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="23" priority="48">
+    <cfRule type="expression" dxfId="77" priority="102">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="76" priority="100">
       <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="74" priority="84">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="73" priority="82">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="70" priority="73">
       <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="expression" dxfId="67" priority="67">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="expression" dxfId="62" priority="61">
+      <formula>AND(TODAY()&gt;=AE$5,TODAY()&lt;AF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8">
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>AND(task_start&lt;=AE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AE$5,task_start&lt;AF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="58" priority="58">
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="55" priority="55">
+      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:N27 L26:M26 I28:N28 H29:I29">
+    <cfRule type="expression" dxfId="53" priority="44">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:N27 L26:M26 I28:N28 H29:I29">
+    <cfRule type="expression" dxfId="52" priority="42">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="43" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="expression" dxfId="50" priority="45">
+      <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="expression" dxfId="49" priority="46">
+      <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
+      <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="46" priority="49">
+      <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="50" stopIfTrue="1">
+      <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="44" priority="51">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="43" priority="52">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
+      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
+      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+      <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>AND(TODAY()&gt;=Q$5,TODAY()&lt;R$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>AND(task_start&lt;=V$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=V$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=V$5,task_start&lt;W$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
+      <formula>AND(TODAY()&gt;=AD$5,TODAY()&lt;AE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
+      <formula>AND(task_start&lt;=AD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AD$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>AND(TODAY()&gt;=AE$5,TODAY()&lt;AF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD8">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(task_start&lt;=AE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AE$5,task_start&lt;AF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
+      <formula>AND(task_end&gt;=AD$5,task_start&lt;AE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
     <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
+      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
     <cfRule type="expression" dxfId="4" priority="4">
-      <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
+      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5575,12 +6400,12 @@
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="23" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="26" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
@@ -5590,7 +6415,7 @@
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="23" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">

--- a/GANTT.xlsx
+++ b/GANTT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7FFE0-1ECC-4488-8AC9-C0C1BB6FFEDA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0EE4C-1F50-4958-9D4E-25CF34477E3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,34 +1085,124 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
@@ -1133,121 +1223,31 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1266,67 +1266,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="151">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="145">
     <dxf>
       <fill>
         <patternFill>
@@ -2785,15 +2725,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="150"/>
-      <tableStyleElement type="headerRow" dxfId="149"/>
-      <tableStyleElement type="totalRow" dxfId="148"/>
-      <tableStyleElement type="firstColumn" dxfId="147"/>
-      <tableStyleElement type="lastColumn" dxfId="146"/>
-      <tableStyleElement type="firstRowStripe" dxfId="145"/>
-      <tableStyleElement type="secondRowStripe" dxfId="144"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="143"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="142"/>
+      <tableStyleElement type="wholeTable" dxfId="144"/>
+      <tableStyleElement type="headerRow" dxfId="143"/>
+      <tableStyleElement type="totalRow" dxfId="142"/>
+      <tableStyleElement type="firstColumn" dxfId="141"/>
+      <tableStyleElement type="lastColumn" dxfId="140"/>
+      <tableStyleElement type="firstRowStripe" dxfId="139"/>
+      <tableStyleElement type="secondRowStripe" dxfId="138"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="137"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="136"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3212,7 +3152,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25:J25"/>
+      <selection pane="bottomLeft" activeCell="BG23" sqref="BG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3251,71 +3191,71 @@
     </row>
     <row r="3" spans="1:319" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="67"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
     </row>
     <row r="4" spans="1:319" ht="1.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="34"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="102"/>
-      <c r="AD4" s="102"/>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="102"/>
-      <c r="AK4" s="102"/>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="102"/>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102"/>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="102"/>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102"/>
-      <c r="AZ4" s="102"/>
-      <c r="BA4" s="102"/>
-      <c r="BB4" s="102"/>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="102"/>
-      <c r="BF4" s="102"/>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
+      <c r="AH4" s="132"/>
+      <c r="AI4" s="132"/>
+      <c r="AJ4" s="132"/>
+      <c r="AK4" s="132"/>
+      <c r="AL4" s="132"/>
+      <c r="AM4" s="132"/>
+      <c r="AN4" s="132"/>
+      <c r="AO4" s="132"/>
+      <c r="AP4" s="132"/>
+      <c r="AQ4" s="132"/>
+      <c r="AR4" s="132"/>
+      <c r="AS4" s="132"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="132"/>
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="132"/>
+      <c r="AY4" s="132"/>
+      <c r="AZ4" s="132"/>
+      <c r="BA4" s="132"/>
+      <c r="BB4" s="132"/>
+      <c r="BC4" s="132"/>
+      <c r="BD4" s="132"/>
+      <c r="BE4" s="132"/>
+      <c r="BF4" s="132"/>
+      <c r="BG4" s="132"/>
+      <c r="BH4" s="132"/>
       <c r="BI4" s="68"/>
       <c r="BJ4" s="68"/>
       <c r="BK4" s="68"/>
@@ -3326,65 +3266,65 @@
     </row>
     <row r="5" spans="1:319" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="133"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="133"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
+      <c r="AP5" s="133"/>
+      <c r="AQ5" s="133"/>
+      <c r="AR5" s="133"/>
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="133"/>
+      <c r="AU5" s="133"/>
+      <c r="AV5" s="133"/>
+      <c r="AW5" s="133"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="133"/>
+      <c r="AZ5" s="133"/>
+      <c r="BA5" s="133"/>
+      <c r="BB5" s="133"/>
+      <c r="BC5" s="133"/>
+      <c r="BD5" s="133"/>
+      <c r="BE5" s="133"/>
+      <c r="BF5" s="133"/>
+      <c r="BG5" s="133"/>
+      <c r="BH5" s="133"/>
     </row>
     <row r="6" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="62"/>
@@ -3911,70 +3851,70 @@
       <c r="A8" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="105"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="33"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="107" t="s">
+      <c r="I8" s="115"/>
+      <c r="J8" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="113" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="114"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116" t="s">
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="120" t="s">
+      <c r="Q8" s="107"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="119"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="123" t="s">
+      <c r="T8" s="90"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="W8" s="122"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="126" t="s">
+      <c r="W8" s="91"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="127"/>
-      <c r="AA8" s="131" t="s">
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="134" t="s">
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="AE8" s="135"/>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="128" t="s">
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="AH8" s="129"/>
-      <c r="AI8" s="130"/>
+      <c r="AH8" s="127"/>
+      <c r="AI8" s="128"/>
       <c r="AJ8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AK8" s="128" t="s">
+      <c r="AK8" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="AL8" s="129"/>
-      <c r="AM8" s="130"/>
+      <c r="AL8" s="127"/>
+      <c r="AM8" s="128"/>
       <c r="AN8" s="77"/>
       <c r="AO8" s="40"/>
       <c r="AP8" s="40"/>
@@ -3999,8 +3939,8 @@
       <c r="BK8" s="76"/>
     </row>
     <row r="9" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="33"/>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -4073,8 +4013,8 @@
       <c r="BH9" s="40"/>
     </row>
     <row r="10" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="33"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -4148,8 +4088,8 @@
       <c r="BH10" s="40"/>
     </row>
     <row r="11" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="33"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -4218,17 +4158,17 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="112" t="s">
+      <c r="H12" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
       <c r="O12" s="73"/>
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
@@ -4278,10 +4218,10 @@
     </row>
     <row r="13" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="62"/>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="9">
         <v>0.5</v>
       </c>
@@ -4294,100 +4234,100 @@
         <v>5</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="95" t="s">
+      <c r="H13" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="98" t="s">
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93" t="s">
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="89" t="s">
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="94" t="s">
+      <c r="X13" s="136"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="91" t="s">
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="91"/>
-      <c r="AJ13" s="91"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="92" t="s">
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="143"/>
+      <c r="AK13" s="143"/>
+      <c r="AL13" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="93" t="s">
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="141"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
+      <c r="AV13" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="89" t="s">
+      <c r="AW13" s="135"/>
+      <c r="AX13" s="135"/>
+      <c r="AY13" s="135"/>
+      <c r="AZ13" s="135"/>
+      <c r="BA13" s="135"/>
+      <c r="BB13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="BC13" s="89"/>
-      <c r="BD13" s="89"/>
-      <c r="BE13" s="89"/>
-      <c r="BF13" s="89"/>
-      <c r="BG13" s="89"/>
-      <c r="BH13" s="89"/>
-      <c r="BI13" s="89"/>
-      <c r="BJ13" s="89"/>
-      <c r="BK13" s="89"/>
-      <c r="BL13" s="90"/>
-      <c r="BM13" s="90"/>
-      <c r="BN13" s="90"/>
-      <c r="BO13" s="90"/>
-      <c r="BP13" s="89" t="s">
+      <c r="BC13" s="136"/>
+      <c r="BD13" s="136"/>
+      <c r="BE13" s="136"/>
+      <c r="BF13" s="136"/>
+      <c r="BG13" s="136"/>
+      <c r="BH13" s="136"/>
+      <c r="BI13" s="136"/>
+      <c r="BJ13" s="136"/>
+      <c r="BK13" s="136"/>
+      <c r="BL13" s="142"/>
+      <c r="BM13" s="142"/>
+      <c r="BN13" s="142"/>
+      <c r="BO13" s="142"/>
+      <c r="BP13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="BQ13" s="89"/>
-      <c r="BR13" s="89"/>
-      <c r="BS13" s="89"/>
-      <c r="BT13" s="89"/>
-      <c r="BU13" s="89"/>
-      <c r="BV13" s="89" t="s">
+      <c r="BQ13" s="136"/>
+      <c r="BR13" s="136"/>
+      <c r="BS13" s="136"/>
+      <c r="BT13" s="136"/>
+      <c r="BU13" s="136"/>
+      <c r="BV13" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="BW13" s="89"/>
+      <c r="BW13" s="136"/>
     </row>
     <row r="14" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="9">
         <v>0.5</v>
       </c>
@@ -4467,8 +4407,8 @@
       <c r="BH14" s="74"/>
     </row>
     <row r="15" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="9"/>
       <c r="E15" s="48">
         <f>F14</f>
@@ -4546,8 +4486,8 @@
       <c r="BH15" s="40"/>
     </row>
     <row r="16" spans="1:319" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="9"/>
       <c r="E16" s="48">
         <f>E15</f>
@@ -4624,8 +4564,8 @@
       <c r="BH16" s="40"/>
     </row>
     <row r="17" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="9"/>
       <c r="E17" s="48">
         <f>E16</f>
@@ -5168,10 +5108,10 @@
       <c r="BH24" s="40"/>
     </row>
     <row r="25" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="137"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="17"/>
       <c r="E25" s="56" t="s">
         <v>22</v>
@@ -5180,38 +5120,38 @@
         <v>22</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="142"/>
-      <c r="W25" s="142"/>
-      <c r="X25" s="142"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="140"/>
-      <c r="AB25" s="140"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="119"/>
-      <c r="AG25" s="122"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="122"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="91"/>
+      <c r="AH25" s="91"/>
+      <c r="AI25" s="91"/>
       <c r="AJ25" s="36"/>
-      <c r="AK25" s="122"/>
-      <c r="AL25" s="122"/>
-      <c r="AM25" s="143"/>
+      <c r="AK25" s="91"/>
+      <c r="AL25" s="91"/>
+      <c r="AM25" s="92"/>
       <c r="AN25" s="40"/>
       <c r="AO25" s="40"/>
       <c r="AP25" s="40"/>
@@ -5235,8 +5175,8 @@
       <c r="BH25" s="40"/>
     </row>
     <row r="26" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="17"/>
       <c r="E26" s="56" t="s">
         <v>22</v>
@@ -5314,8 +5254,8 @@
       <c r="BH26" s="40"/>
     </row>
     <row r="27" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
       <c r="D27" s="17"/>
       <c r="E27" s="56" t="s">
         <v>22</v>
@@ -5393,8 +5333,8 @@
       <c r="BH27" s="40"/>
     </row>
     <row r="28" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
       <c r="D28" s="17"/>
       <c r="E28" s="56" t="s">
         <v>22</v>
@@ -5460,8 +5400,8 @@
       <c r="BH28" s="40"/>
     </row>
     <row r="29" spans="1:60" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
       <c r="D29" s="17"/>
       <c r="E29" s="56" t="s">
         <v>22</v>
@@ -5470,17 +5410,17 @@
         <v>22</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="112" t="s">
+      <c r="H29" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="109" t="s">
+      <c r="I29" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="102"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
@@ -5667,36 +5607,19 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AI25"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AC25"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="B8:C11"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="BV13:BW13"/>
+    <mergeCell ref="BB13:BK13"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="BP13:BU13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AU13"/>
+    <mergeCell ref="AV13:BA13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="M13:Q13"/>
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="H5:BH5"/>
     <mergeCell ref="AU4:BA4"/>
@@ -5706,19 +5629,36 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="BV13:BW13"/>
-    <mergeCell ref="BB13:BK13"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="BP13:BU13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AU13"/>
-    <mergeCell ref="AV13:BA13"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="B8:C11"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AI25"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AC25"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D31">
@@ -5736,592 +5676,592 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH24 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8 H30:BH31 O26:BH29 AN25:BH25">
-    <cfRule type="expression" dxfId="141" priority="207">
+    <cfRule type="expression" dxfId="135" priority="207">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BH7 H8 J8 M8 AN8:BH8 J10:BH10 L9:M9 P9:BH9 H18:BH24 I17:BH17 O16:BH16 I15:BH15 I11:BH11 H12:I12 H14:BH14 O12:BH12 AJ8 H30:BH31 O26:BH29 AN25:BH25">
-    <cfRule type="expression" dxfId="140" priority="201">
+    <cfRule type="expression" dxfId="134" priority="201">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="202" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 AA8">
-    <cfRule type="expression" dxfId="138" priority="211">
+    <cfRule type="expression" dxfId="132" priority="211">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9 AA8">
-    <cfRule type="expression" dxfId="137" priority="215">
+    <cfRule type="expression" dxfId="131" priority="215">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="216" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 P8 V8">
-    <cfRule type="expression" dxfId="135" priority="218">
+    <cfRule type="expression" dxfId="129" priority="218">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 P8 V8">
-    <cfRule type="expression" dxfId="134" priority="221">
+    <cfRule type="expression" dxfId="128" priority="221">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="222" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="132" priority="224">
+    <cfRule type="expression" dxfId="126" priority="224">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="131" priority="227">
+    <cfRule type="expression" dxfId="125" priority="227">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="228" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="129" priority="241">
+    <cfRule type="expression" dxfId="123" priority="241">
       <formula>AND(TODAY()&gt;=#REF!,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="128" priority="162">
+    <cfRule type="expression" dxfId="122" priority="162">
       <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="expression" dxfId="127" priority="160">
+    <cfRule type="expression" dxfId="121" priority="160">
       <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="161" stopIfTrue="1">
       <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="125" priority="169">
+    <cfRule type="expression" dxfId="119" priority="169">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="124" priority="170">
+    <cfRule type="expression" dxfId="118" priority="170">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="171" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="122" priority="172">
+    <cfRule type="expression" dxfId="116" priority="172">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="121" priority="173">
+    <cfRule type="expression" dxfId="115" priority="173">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="174" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="119" priority="163">
+    <cfRule type="expression" dxfId="113" priority="163">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="118" priority="164">
+    <cfRule type="expression" dxfId="112" priority="164">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="165" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="116" priority="157">
+    <cfRule type="expression" dxfId="110" priority="157">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="115" priority="158">
+    <cfRule type="expression" dxfId="109" priority="158">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="113" priority="154">
+    <cfRule type="expression" dxfId="107" priority="154">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="112" priority="155">
+    <cfRule type="expression" dxfId="106" priority="155">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="110" priority="153">
+    <cfRule type="expression" dxfId="104" priority="153">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="109" priority="152">
+    <cfRule type="expression" dxfId="103" priority="152">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="242" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="107" priority="150">
+    <cfRule type="expression" dxfId="101" priority="150">
       <formula>AND(TODAY()&gt;=R$5,TODAY()&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="expression" dxfId="106" priority="148">
+    <cfRule type="expression" dxfId="100" priority="148">
       <formula>AND(task_start&lt;=R$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=R$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="149" stopIfTrue="1">
       <formula>AND(task_end&gt;=R$5,task_start&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="104" priority="147">
+    <cfRule type="expression" dxfId="98" priority="147">
       <formula>AND(TODAY()&gt;=M$5,TODAY()&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="expression" dxfId="103" priority="145">
+    <cfRule type="expression" dxfId="97" priority="145">
       <formula>AND(task_start&lt;=M$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=M$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=M$5,task_start&lt;N$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="101" priority="144">
+    <cfRule type="expression" dxfId="95" priority="144">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="expression" dxfId="100" priority="142">
+    <cfRule type="expression" dxfId="94" priority="142">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="98" priority="141">
+    <cfRule type="expression" dxfId="92" priority="141">
       <formula>AND(TODAY()&gt;=W$5,TODAY()&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="97" priority="139">
+    <cfRule type="expression" dxfId="91" priority="139">
       <formula>AND(task_start&lt;=W$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="140" stopIfTrue="1">
       <formula>AND(task_end&gt;=W$5,task_start&lt;X$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="95" priority="138">
+    <cfRule type="expression" dxfId="89" priority="138">
       <formula>AND(TODAY()&gt;=AB$5,TODAY()&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="94" priority="136">
+    <cfRule type="expression" dxfId="88" priority="136">
       <formula>AND(task_start&lt;=AB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="137" stopIfTrue="1">
       <formula>AND(task_end&gt;=AB$5,task_start&lt;AC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="92" priority="132">
+    <cfRule type="expression" dxfId="86" priority="132">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13">
-    <cfRule type="expression" dxfId="91" priority="130">
+    <cfRule type="expression" dxfId="85" priority="130">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="131" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="89" priority="129">
+    <cfRule type="expression" dxfId="83" priority="129">
       <formula>AND(TODAY()&gt;=AL$5,TODAY()&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL13">
-    <cfRule type="expression" dxfId="88" priority="127">
+    <cfRule type="expression" dxfId="82" priority="127">
       <formula>AND(task_start&lt;=AL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="128" stopIfTrue="1">
       <formula>AND(task_end&gt;=AL$5,task_start&lt;AM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="86" priority="123">
+    <cfRule type="expression" dxfId="80" priority="123">
       <formula>AND(TODAY()&gt;=AV$5,TODAY()&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV13">
-    <cfRule type="expression" dxfId="85" priority="121">
+    <cfRule type="expression" dxfId="79" priority="121">
       <formula>AND(task_start&lt;=AV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="122" stopIfTrue="1">
       <formula>AND(task_end&gt;=AV$5,task_start&lt;AW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="83" priority="120">
+    <cfRule type="expression" dxfId="77" priority="120">
       <formula>AND(TODAY()&gt;=BB$5,TODAY()&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB13">
-    <cfRule type="expression" dxfId="82" priority="118">
+    <cfRule type="expression" dxfId="76" priority="118">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="119" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="80" priority="114">
+    <cfRule type="expression" dxfId="74" priority="114">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL13">
-    <cfRule type="expression" dxfId="79" priority="112">
+    <cfRule type="expression" dxfId="73" priority="112">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="113" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="77" priority="102">
+    <cfRule type="expression" dxfId="71" priority="102">
       <formula>AND(TODAY()&gt;=BP$5,TODAY()&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP13">
-    <cfRule type="expression" dxfId="76" priority="100">
+    <cfRule type="expression" dxfId="70" priority="100">
       <formula>AND(task_start&lt;=BP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BP$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=BP$5,task_start&lt;BQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
-    <cfRule type="expression" dxfId="74" priority="84">
+    <cfRule type="expression" dxfId="68" priority="84">
       <formula>AND(TODAY()&gt;=BV$5,TODAY()&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV13">
-    <cfRule type="expression" dxfId="73" priority="82">
+    <cfRule type="expression" dxfId="67" priority="82">
       <formula>AND(task_start&lt;=BV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BV$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=BV$5,task_start&lt;BW$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="71" priority="75">
+    <cfRule type="expression" dxfId="65" priority="75">
       <formula>AND(TODAY()&gt;=S$5,TODAY()&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="70" priority="73">
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>AND(task_start&lt;=S$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=S$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="74" stopIfTrue="1">
       <formula>AND(task_end&gt;=S$5,task_start&lt;T$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="expression" dxfId="68" priority="69">
+    <cfRule type="expression" dxfId="62" priority="69">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="61" priority="67">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8">
-    <cfRule type="expression" dxfId="62" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>AND(TODAY()&gt;=AE$5,TODAY()&lt;AF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8">
-    <cfRule type="expression" dxfId="61" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>AND(task_start&lt;=AE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=AE$5,task_start&lt;AF$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="59" priority="60">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="58" priority="58">
+    <cfRule type="expression" dxfId="55" priority="58">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="55" priority="55">
+    <cfRule type="expression" dxfId="52" priority="55">
       <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:N27 L26:M26 I28:N28 H29:I29">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="50" priority="44">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:N27 L26:M26 I28:N28 H29:I29">
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="49" priority="42">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="50" priority="45">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>AND(TODAY()&gt;=O$5,TODAY()&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="49" priority="46">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>AND(task_start&lt;=O$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=O$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=O$5,task_start&lt;P$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="46" priority="49">
+    <cfRule type="expression" dxfId="43" priority="49">
       <formula>AND(task_start&lt;=J$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=J$5,task_start&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="44" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="43" priority="52">
+    <cfRule type="expression" dxfId="40" priority="52">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="41" priority="41">
+    <cfRule type="expression" dxfId="38" priority="41">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="37" priority="40">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="34" priority="37">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=K$5,task_start&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>AND(TODAY()&gt;=N$5,TODAY()&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>AND(task_start&lt;=N$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=N$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=N$5,task_start&lt;O$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>AND(TODAY()&gt;=Q$5,TODAY()&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>AND(TODAY()&gt;=T$5,TODAY()&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>AND(task_start&lt;=T$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=T$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="26" stopIfTrue="1">
       <formula>AND(task_end&gt;=T$5,task_start&lt;U$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(TODAY()&gt;=V$5,TODAY()&lt;W$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>AND(task_start&lt;=V$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=V$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=V$5,task_start&lt;W$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>AND(TODAY()&gt;=Y$5,TODAY()&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>AND(task_start&lt;=Y$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Y$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>AND(task_end&gt;=Y$5,task_start&lt;Z$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>AND(TODAY()&gt;=AA$5,TODAY()&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>AND(task_start&lt;=AA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=AA$5,task_start&lt;AB$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>AND(TODAY()&gt;=AD$5,TODAY()&lt;AE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD25">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(task_start&lt;=AD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AD$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
       <formula>AND(task_end&gt;=AD$5,task_start&lt;AE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>AND(TODAY()&gt;=AG$5,TODAY()&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG25">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>AND(task_start&lt;=AG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AG$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=AG$5,task_start&lt;AH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ25">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;AK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(TODAY()&gt;=AK$5,TODAY()&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(task_start&lt;=AK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>AND(task_end&gt;=AK$5,task_start&lt;AL$5)</formula>
     </cfRule>
   </conditionalFormatting>
